--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4073.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4073.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4073</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Suryakumar Ashok Yadav</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4485</t>
+          <t>4485</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -855,7 +920,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>12/07/2022</t>
@@ -863,7 +927,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -915,7 +979,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -967,7 +1031,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1019,7 +1083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1071,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1123,7 +1187,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1175,7 +1239,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1227,7 +1291,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1279,7 +1343,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1331,7 +1395,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1383,7 +1447,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1423,7 +1487,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>21/01/2023</t>
@@ -1431,7 +1494,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1483,7 +1546,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1535,7 +1598,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1587,7 +1650,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1639,7 +1702,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1670,6 +1733,551 @@
       <c r="J24" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>13.78%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.00%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18.49%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6.13%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.22%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.56%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.74%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.64%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4073.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4073.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4073.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4073.xlsx
@@ -1747,7 +1747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1790,25 +1790,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4529</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13.78%</t>
+          <t>11.79%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1820,13 +1820,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>19.13%</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -1836,7 +1850,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4535</t>
+          <t>4485</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1844,7 +1858,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1854,7 +1868,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27.00%</t>
+          <t>17.78%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1866,7 +1880,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1874,17 +1888,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>13.78%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1896,12 +1910,10 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -1914,7 +1926,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4613</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1922,17 +1934,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18.49%</t>
+          <t>27.00%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1944,11 +1956,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4618</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1962,7 +1974,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.13%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1974,27 +1986,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4621</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.22%</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2004,13 +2004,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>18.49%</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2020,11 +2034,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4624</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2038,7 +2052,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.56%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2050,15 +2064,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4669</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2068,7 +2082,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>4.22%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2080,7 +2094,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4673</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -2096,25 +2110,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.74%</t>
+          <t>3.56%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2126,13 +2140,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4691</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2142,7 +2170,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4692</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -2158,15 +2186,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.74%</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2176,27 +2216,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.64%</t>
-        </is>
-      </c>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2206,22 +2232,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
@@ -2232,22 +2248,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
@@ -2258,24 +2266,106 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.64%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>4732</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>7</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
